--- a/Znode9X/TestData/KeywordUserGuide.xlsx
+++ b/Znode9X/TestData/KeywordUserGuide.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>TestCase</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>Locator of a DropDown which needs to be selected</t>
+  </si>
+  <si>
+    <t>Value in the DropDown</t>
   </si>
 </sst>
 </file>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -700,28 +709,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -732,42 +741,74 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P9" s="13"/>
-      <c r="Q9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="13"/>
+      <c r="Q10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P10" s="12"/>
-      <c r="Q10" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="12"/>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P11" s="11"/>
-      <c r="Q11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="11"/>
+      <c r="Q12" t="s">
         <v>23</v>
       </c>
     </row>
